--- a/biology/Botanique/Pinus_tabuliformis/Pinus_tabuliformis.xlsx
+++ b/biology/Botanique/Pinus_tabuliformis/Pinus_tabuliformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus tabuliformis est une espèce de conifères de la famille des Pinaceae. Originaire des provinces du Nord de la Chine, cette espèce est parfois nommée pin rouge de Chine. En mandarin, ce conifère est appelé 油松 (pinyin : yóusōng), ce qui signifie littéralement « pin huileux ».
 </t>
@@ -511,21 +523,23 @@
           <t>Liste des sous-espèces, variétés et formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 juin 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 juin 2013) :
 variété Pinus tabuliformis var. mukdensis
 variété Pinus tabuliformis var. tabuliformis
 variété Pinus tabuliformis var. umbraculifera T. N. Liou &amp; Q.L. Wang
-Selon World Checklist of Selected Plant Families (WCSP)  (19 juin 2013)[2] :
+Selon World Checklist of Selected Plant Families (WCSP)  (19 juin 2013) :
 Pinus tabuliformis Carrière, Traité Gén. Conif. (1867)
 variété Pinus tabuliformis var. mukdensis (Uyeki ex Nakai) Uyeki (1925)
 variété Pinus tabuliformis var. tabuliformis
 variété Pinus tabuliformis var. umbraculifera Liou &amp; Z.Wang (1958)
-Selon NCBI  (19 juin 2013)[3] :
+Selon NCBI  (19 juin 2013) :
 variété Pinus tabuliformis var. henryi
 variété Pinus tabuliformis var. tabuliformis
-Selon Tropicos                                           (19 juin 2013)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Pinus tabuliformis subsp. henryi (Mast.) Businsky
 sous-espèce Pinus tabuliformis subsp. mukdensis (Uyeki ex Nakai) Businsky
 variété Pinus tabuliformis var. bracteata Takenouchi
